--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +616,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +663,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +847,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +894,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1078,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1125,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1256,10 +1280,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1303,28 +1327,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1349,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1545,10 +1569,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1592,28 +1616,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1638,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1916,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1963,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +2009,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2094,10 +2118,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2141,28 +2165,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2187,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2383,10 +2407,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2430,28 +2454,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2476,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2701,10 +2725,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2748,28 +2772,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2794,28 +2818,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2932,10 +2956,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2979,28 +3003,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3025,28 +3049,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3221,10 +3245,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3268,28 +3292,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3314,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3510,10 +3534,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3557,28 +3581,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3603,28 +3627,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3712,10 +3736,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3759,28 +3783,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3805,28 +3829,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3972,10 +3996,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4019,28 +4043,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4065,28 +4089,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4319,10 +4343,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4366,28 +4390,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4412,28 +4436,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4579,10 +4603,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4626,28 +4650,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4672,28 +4696,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4781,10 +4805,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4828,28 +4852,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4874,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4983,10 +5007,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5030,28 +5054,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5076,28 +5100,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5330,10 +5354,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5377,28 +5401,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5423,28 +5447,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5677,10 +5701,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5724,28 +5748,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5770,28 +5794,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5879,10 +5903,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5926,28 +5950,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5972,28 +5996,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6110,10 +6134,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6157,28 +6181,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6203,28 +6227,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6312,10 +6336,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6359,28 +6383,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6405,28 +6429,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6514,10 +6538,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6561,28 +6585,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6607,28 +6631,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6774,10 +6798,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6821,28 +6845,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6867,28 +6891,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6971,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
